--- a/Tc_Template.xlsx
+++ b/Tc_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdulrahmanAyman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mn\Documents\GitHub\Manual-Testing---Bank-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C7046-D988-4568-9401-94B0AE6C26D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E571C82C-3034-4A69-B1E3-00488BD7CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Title</t>
   </si>
@@ -328,12 +328,99 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t>1. Open Chrome Version 27 or Above
+2.Navigate to "https://demo.guru99.com/V4/index.php"
+3. Login as a Manager 
+4.open add cus tab</t>
+  </si>
+  <si>
+    <t>REQ_02</t>
+  </si>
+  <si>
+    <t>SC_01 (Add new cus)</t>
+  </si>
+  <si>
+    <t>1 enter invalid birth date  12/31/2025</t>
+  </si>
+  <si>
+    <t>1 birth date 12/31/2025</t>
+  </si>
+  <si>
+    <t>erore since you cant be born in the future</t>
+  </si>
+  <si>
+    <t>allowed the sign in</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>adding customers birth date</t>
+  </si>
+  <si>
+    <t>adding customers city state and pin</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Version 27 or Above
+2.Navigate to "https://demo.guru99.com/V4/index.php"
+3. Login as a Manager 
+4.open add cus tab 
+5 adding the customer city state and pin</t>
+  </si>
+  <si>
+    <t>1 enter the customer city state and pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City alex
+State calfornia
+PIN 111222
+</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>addin customers number</t>
+  </si>
+  <si>
+    <t>adding customer E-mail</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Version 27 or Above
+2.Navigate to "https://demo.guru99.com/V4/index.php"
+3. Login as a Manager 
+4.open add cus tab 
+5 adding the customer number</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Version 27 or Above
+2.Navigate to "https://demo.guru99.com/V4/index.php"
+3. Login as a Manager 
+4.open add cus tab 
+5 adding the customer E-mail</t>
+  </si>
+  <si>
+    <t>1 enter the customer number</t>
+  </si>
+  <si>
+    <t>1 enter the customer E-mail</t>
+  </si>
+  <si>
+    <t>omar@gamil.com</t>
+  </si>
+  <si>
+    <t>SC_02(editing new cus)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +456,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,10 +494,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -414,8 +516,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,28 +805,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="55.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="49.36328125" customWidth="1"/>
-    <col min="7" max="7" width="41.90625" customWidth="1"/>
-    <col min="8" max="8" width="31.36328125" customWidth="1"/>
-    <col min="9" max="9" width="59.6328125" customWidth="1"/>
-    <col min="10" max="10" width="33.453125" customWidth="1"/>
-    <col min="11" max="11" width="27.08984375" customWidth="1"/>
-    <col min="12" max="12" width="23.90625" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -791,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -818,59 +927,145 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1238822193</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -878,7 +1073,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -888,7 +1083,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -898,7 +1093,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -908,7 +1103,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -918,7 +1113,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -928,7 +1123,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -938,7 +1133,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -948,7 +1143,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -958,7 +1153,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -968,7 +1163,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -978,7 +1173,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -988,7 +1183,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -998,7 +1193,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1008,7 +1203,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1018,7 +1213,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1028,7 +1223,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1038,7 +1233,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1048,7 +1243,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1058,7 +1253,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1068,7 +1263,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1078,7 +1273,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1088,7 +1283,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1098,7 +1293,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1108,7 +1303,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1118,7 +1313,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1128,7 +1323,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1138,7 +1333,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1148,7 +1343,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1158,7 +1353,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1168,7 +1363,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1178,7 +1373,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1188,7 +1383,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1198,7 +1393,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1208,7 +1403,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1218,7 +1413,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1228,7 +1423,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1238,7 +1433,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1248,7 +1443,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1258,7 +1453,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1268,7 +1463,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1278,7 +1473,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1288,7 +1483,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1298,7 +1493,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1308,7 +1503,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1318,7 +1513,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1328,7 +1523,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1338,7 +1533,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1348,7 +1543,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1358,7 +1553,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1368,7 +1563,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1378,7 +1573,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1388,7 +1583,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1398,7 +1593,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1408,7 +1603,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1418,7 +1613,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1428,7 +1623,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1438,7 +1633,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1448,7 +1643,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1458,7 +1653,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1468,7 +1663,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1478,7 +1673,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1489,11 +1684,28 @@
       <c r="H70" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="16">
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{BDF0C46D-8959-436C-86B3-36C49095EB18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>